--- a/Data/shared between HFD and HFD+XN.xlsx
+++ b/Data/shared between HFD and HFD+XN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kioussilab/Desktop/FXR analysis/Fxr/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE1778E-285A-9B43-B567-AE9F913B7B8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80BC40A0-5E19-954E-92BB-C07AA002C540}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="5460" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="shared between HFD and HFD+XN" sheetId="1" r:id="rId1"/>
@@ -1489,9 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1511,10 +1509,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.67881515945508197</v>
+        <v>-0.678815159</v>
       </c>
       <c r="C2">
-        <v>-0.59743612254195699</v>
+        <v>-0.59743612300000004</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1522,10 +1520,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.0087374154026798</v>
+        <v>2.0087374150000001</v>
       </c>
       <c r="C3">
-        <v>2.2620602175426798</v>
+        <v>2.2620602179999998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1533,10 +1531,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.972001319692963</v>
+        <v>0.97200131999999995</v>
       </c>
       <c r="C4">
-        <v>0.86838114716089898</v>
+        <v>0.86838114700000002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1544,10 +1542,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2.06883143807402</v>
+        <v>2.0688314380000001</v>
       </c>
       <c r="C5">
-        <v>1.9123629495203001</v>
+        <v>1.9123629499999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1555,10 +1553,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2.0248169033622201</v>
+        <v>2.0248169030000001</v>
       </c>
       <c r="C6">
-        <v>1.34423448196896</v>
+        <v>1.3442344820000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1566,10 +1564,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.8901415554020999</v>
+        <v>1.890141555</v>
       </c>
       <c r="C7">
-        <v>1.6406350363053901</v>
+        <v>1.6406350359999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1577,10 +1575,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.8509833469481001</v>
+        <v>1.8509833469999999</v>
       </c>
       <c r="C8">
-        <v>1.0524470654040801</v>
+        <v>1.052447065</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1588,10 +1586,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1.02533775957523</v>
+        <v>1.02533776</v>
       </c>
       <c r="C9">
-        <v>0.88466907107957904</v>
+        <v>0.88466907100000003</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1599,10 +1597,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-1.0650117223750399</v>
+        <v>-1.0650117219999999</v>
       </c>
       <c r="C10">
-        <v>-1.1060598468585301</v>
+        <v>-1.106059847</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1610,10 +1608,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1.69466951293892</v>
+        <v>1.694669513</v>
       </c>
       <c r="C11">
-        <v>2.34718355750582</v>
+        <v>2.3471835579999998</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1621,10 +1619,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.86536106645118704</v>
+        <v>0.86536106599999996</v>
       </c>
       <c r="C12">
-        <v>1.0670770161242999</v>
+        <v>1.067077016</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1632,10 +1630,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1.20069729036634</v>
+        <v>1.2006972899999999</v>
       </c>
       <c r="C13">
-        <v>1.11517994254886</v>
+        <v>1.115179943</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1643,10 +1641,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.87086400631137195</v>
+        <v>0.87086400600000002</v>
       </c>
       <c r="C14">
-        <v>0.79228383545509296</v>
+        <v>0.79228383499999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1654,10 +1652,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>4.6838003541430897</v>
+        <v>4.6838003539999997</v>
       </c>
       <c r="C15">
-        <v>4.0670042663846697</v>
+        <v>4.0670042659999996</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1665,10 +1663,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.87553258100000997</v>
+        <v>-0.87553258099999998</v>
       </c>
       <c r="C16">
-        <v>-0.99660157664313598</v>
+        <v>-0.99660157699999996</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1676,10 +1674,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>1.1421274066070599</v>
+        <v>1.142127407</v>
       </c>
       <c r="C17">
-        <v>0.87770922461176304</v>
+        <v>0.87770922500000004</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1687,10 +1685,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>1.0210527824189799</v>
+        <v>1.0210527819999999</v>
       </c>
       <c r="C18">
-        <v>0.99743542812961905</v>
+        <v>0.99743542799999996</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1698,10 +1696,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>1.6818767921529001</v>
+        <v>1.681876792</v>
       </c>
       <c r="C19">
-        <v>1.0777212713775199</v>
+        <v>1.0777212709999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1709,10 +1707,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>-2.0099179843276298</v>
+        <v>-2.0099179839999999</v>
       </c>
       <c r="C20">
-        <v>-1.9136781248971699</v>
+        <v>-1.9136781249999999</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1720,10 +1718,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1.80760417267455</v>
+        <v>1.8076041730000001</v>
       </c>
       <c r="C21">
-        <v>1.2896836605428399</v>
+        <v>1.289683661</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1731,10 +1729,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1.43660105407144</v>
+        <v>1.436601054</v>
       </c>
       <c r="C22">
-        <v>1.10441191123073</v>
+        <v>1.1044119109999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1742,10 +1740,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>-1.76331377202286</v>
+        <v>-1.7633137720000001</v>
       </c>
       <c r="C23">
-        <v>-1.49590541128229</v>
+        <v>-1.4959054110000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1753,10 +1751,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>-1.00577530739357</v>
+        <v>-1.005775307</v>
       </c>
       <c r="C24">
-        <v>-0.93917622043235804</v>
+        <v>-0.93917622000000001</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1764,10 +1762,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.482431372191645</v>
+        <v>-0.48243137200000002</v>
       </c>
       <c r="C25">
-        <v>-0.67204163787121596</v>
+        <v>-0.67204163800000005</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1775,10 +1773,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>2.6624998404851201</v>
+        <v>2.6624998400000002</v>
       </c>
       <c r="C26">
-        <v>1.24015132348371</v>
+        <v>1.2401513230000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1786,10 +1784,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>-1.2547704147407399</v>
+        <v>-1.2547704150000001</v>
       </c>
       <c r="C27">
-        <v>-1.38416201810977</v>
+        <v>-1.384162018</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1797,10 +1795,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0.81375568559233902</v>
+        <v>0.81375568600000003</v>
       </c>
       <c r="C28">
-        <v>0.70391786364657505</v>
+        <v>0.703917864</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1808,10 +1806,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>1.9568745072909299</v>
+        <v>1.956874507</v>
       </c>
       <c r="C29">
-        <v>0.60085360122350895</v>
+        <v>0.60085360099999996</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1819,10 +1817,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>0.82669152139954205</v>
+        <v>0.82669152099999998</v>
       </c>
       <c r="C30">
-        <v>0.81942692892661995</v>
+        <v>0.81942692900000003</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1830,10 +1828,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>1.7251154242964299</v>
+        <v>1.725115424</v>
       </c>
       <c r="C31">
-        <v>1.2969002335581099</v>
+        <v>1.296900234</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1841,10 +1839,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>1.0209894312674701</v>
+        <v>1.0209894310000001</v>
       </c>
       <c r="C32">
-        <v>0.79469352259445203</v>
+        <v>0.79469352299999996</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1852,10 +1850,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>-1.59237230642497</v>
+        <v>-1.5923723059999999</v>
       </c>
       <c r="C33">
-        <v>-1.1569531215606601</v>
+        <v>-1.156953122</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1863,10 +1861,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.71034393191507905</v>
+        <v>-0.71034393200000001</v>
       </c>
       <c r="C34">
-        <v>-0.60908826729582399</v>
+        <v>-0.60908826699999996</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1874,10 +1872,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>-1.9229505745570901</v>
+        <v>-1.922950575</v>
       </c>
       <c r="C35">
-        <v>-1.6692803662436599</v>
+        <v>-1.669280366</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1885,10 +1883,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>2.5606750618824998</v>
+        <v>2.5606750620000001</v>
       </c>
       <c r="C36">
-        <v>1.47297328346282</v>
+        <v>1.472973283</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1896,10 +1894,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-0.953313339680261</v>
+        <v>-0.95331334000000001</v>
       </c>
       <c r="C37">
-        <v>-1.5403716294210299</v>
+        <v>-1.540371629</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1907,10 +1905,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>0.78153513297441402</v>
+        <v>0.78153513299999999</v>
       </c>
       <c r="C38">
-        <v>0.77245557110940499</v>
+        <v>0.77245557099999995</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1918,10 +1916,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>2.2722937303319002</v>
+        <v>2.2722937299999999</v>
       </c>
       <c r="C39">
-        <v>2.0873786144120401</v>
+        <v>2.0873786139999999</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1929,10 +1927,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>1.18128034195634</v>
+        <v>1.181280342</v>
       </c>
       <c r="C40">
-        <v>1.41471053404291</v>
+        <v>1.4147105339999999</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1940,10 +1938,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.71606853265286696</v>
+        <v>-0.71606853299999995</v>
       </c>
       <c r="C41">
-        <v>-0.71956182895555598</v>
+        <v>-0.71956182899999999</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1951,10 +1949,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>1.2329227334100099</v>
+        <v>1.2329227330000001</v>
       </c>
       <c r="C42">
-        <v>1.6774835420595999</v>
+        <v>1.677483542</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1962,10 +1960,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>2.9770778971318799</v>
+        <v>2.977077897</v>
       </c>
       <c r="C43">
-        <v>1.29290632059854</v>
+        <v>1.292906321</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1973,10 +1971,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>1.49517018886555</v>
+        <v>1.495170189</v>
       </c>
       <c r="C44">
-        <v>1.17417322528681</v>
+        <v>1.1741732250000001</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1984,10 +1982,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>-1.0278861577860501</v>
+        <v>-1.027886158</v>
       </c>
       <c r="C45">
-        <v>-1.24348894107839</v>
+        <v>-1.2434889410000001</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1995,10 +1993,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>1.03280822248186</v>
+        <v>1.0328082220000001</v>
       </c>
       <c r="C46">
-        <v>1.1302295960356801</v>
+        <v>1.1302295959999999</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2006,10 +2004,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>0.73273693381080396</v>
+        <v>0.73273693399999995</v>
       </c>
       <c r="C47">
-        <v>0.54934627952800996</v>
+        <v>0.54934627999999996</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2017,10 +2015,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>2.4899071759927902</v>
+        <v>2.489907176</v>
       </c>
       <c r="C48">
-        <v>2.1941247683591101</v>
+        <v>2.194124768</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2028,10 +2026,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.65636075169933505</v>
+        <v>-0.65636075199999999</v>
       </c>
       <c r="C49">
-        <v>-0.90784732445791905</v>
+        <v>-0.90784732400000001</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2039,10 +2037,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>1.0582045591946201</v>
+        <v>1.058204559</v>
       </c>
       <c r="C50">
-        <v>1.0842137917882599</v>
+        <v>1.0842137919999999</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2050,10 +2048,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>-1.1881929657141299</v>
+        <v>-1.1881929659999999</v>
       </c>
       <c r="C51">
-        <v>-1.3712791500052</v>
+        <v>-1.3712791499999999</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2061,10 +2059,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>-1.59729851054273</v>
+        <v>-1.597298511</v>
       </c>
       <c r="C52">
-        <v>-1.5240782347980499</v>
+        <v>-1.5240782349999999</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2072,10 +2070,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.97767660615334095</v>
+        <v>-0.97767660599999995</v>
       </c>
       <c r="C53">
-        <v>-0.92733740045119994</v>
+        <v>-0.92733739999999998</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2083,10 +2081,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>-1.28226511788777</v>
+        <v>-1.282265118</v>
       </c>
       <c r="C54">
-        <v>-1.37539378433743</v>
+        <v>-1.3753937839999999</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2094,10 +2092,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>-1.8632567648485201</v>
+        <v>-1.863256765</v>
       </c>
       <c r="C55">
-        <v>-1.03048112660163</v>
+        <v>-1.0304811270000001</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2105,10 +2103,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.97972144910218095</v>
+        <v>-0.97972144900000002</v>
       </c>
       <c r="C56">
-        <v>-0.90083823038400601</v>
+        <v>-0.90083822999999996</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2116,10 +2114,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>-0.94329270184989</v>
+        <v>-0.94329270200000004</v>
       </c>
       <c r="C57">
-        <v>-1.77955050881485</v>
+        <v>-1.7795505089999999</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2127,10 +2125,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>-1.5984287467289899</v>
+        <v>-1.598428747</v>
       </c>
       <c r="C58">
-        <v>-1.11195316193364</v>
+        <v>-1.1119531620000001</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2138,10 +2136,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>1.3513383763484701</v>
+        <v>1.351338376</v>
       </c>
       <c r="C59">
-        <v>1.22263230212928</v>
+        <v>1.2226323020000001</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2149,10 +2147,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>2.19231988905661</v>
+        <v>2.1923198890000002</v>
       </c>
       <c r="C60">
-        <v>3.5170313064435201</v>
+        <v>3.5170313059999998</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2160,10 +2158,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>2.3582131178918999</v>
+        <v>2.3582131180000001</v>
       </c>
       <c r="C61">
-        <v>2.4474809521454501</v>
+        <v>2.4474809519999998</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2171,10 +2169,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>0.99761540958784201</v>
+        <v>0.99761540999999998</v>
       </c>
       <c r="C62">
-        <v>0.87724907652259398</v>
+        <v>0.87724907699999999</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2182,10 +2180,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>-1.36409841898538</v>
+        <v>-1.3640984190000001</v>
       </c>
       <c r="C63">
-        <v>-1.07810718271525</v>
+        <v>-1.078107183</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2193,10 +2191,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>2.3010803491329401</v>
+        <v>2.3010803489999998</v>
       </c>
       <c r="C64">
-        <v>1.21507083952953</v>
+        <v>1.2150708400000001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2204,10 +2202,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.67773373415099802</v>
+        <v>-0.67773373400000003</v>
       </c>
       <c r="C65">
-        <v>-0.85696531187562996</v>
+        <v>-0.85696531200000003</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2215,10 +2213,10 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>1.1650659376769701</v>
+        <v>1.1650659379999999</v>
       </c>
       <c r="C66">
-        <v>1.16092804183479</v>
+        <v>1.1609280420000001</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2226,10 +2224,10 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>1.49292437859996</v>
+        <v>1.492924379</v>
       </c>
       <c r="C67">
-        <v>1.3220273562289699</v>
+        <v>1.322027356</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2237,10 +2235,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>-1.0339831500441401</v>
+        <v>-1.0339831500000001</v>
       </c>
       <c r="C68">
-        <v>-0.81402545312280805</v>
+        <v>-0.81402545299999995</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2248,10 +2246,10 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>0.88567133225872197</v>
+        <v>0.88567133200000003</v>
       </c>
       <c r="C69">
-        <v>1.20317439415664</v>
+        <v>1.2031743939999999</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2259,10 +2257,10 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>-1.20740832837961</v>
+        <v>-1.2074083280000001</v>
       </c>
       <c r="C70">
-        <v>-1.15735550428682</v>
+        <v>-1.1573555040000001</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2270,10 +2268,10 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>-1.0777628980813101</v>
+        <v>-1.077762898</v>
       </c>
       <c r="C71">
-        <v>-1.4411722560121201</v>
+        <v>-1.441172256</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2281,10 +2279,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>1.4941671231609901</v>
+        <v>1.494167123</v>
       </c>
       <c r="C72">
-        <v>1.29011573967588</v>
+        <v>1.2901157400000001</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2292,10 +2290,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>2.07996030247463</v>
+        <v>2.0799603019999999</v>
       </c>
       <c r="C73">
-        <v>1.0634318986078799</v>
+        <v>1.063431899</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2303,10 +2301,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>2.4369092476408398</v>
+        <v>2.4369092480000001</v>
       </c>
       <c r="C74">
-        <v>1.8140220299165899</v>
+        <v>1.8140220300000001</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2314,10 +2312,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>-1.31828065393223</v>
+        <v>-1.3182806540000001</v>
       </c>
       <c r="C75">
-        <v>-1.5362378242863901</v>
+        <v>-1.5362378240000001</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2325,10 +2323,10 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>1.65032329677816</v>
+        <v>1.6503232969999999</v>
       </c>
       <c r="C76">
-        <v>1.3013748083874599</v>
+        <v>1.301374808</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2336,10 +2334,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.93153800595099101</v>
+        <v>-0.93153800600000003</v>
       </c>
       <c r="C77">
-        <v>-0.93715670741108903</v>
+        <v>-0.93715670699999998</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2347,10 +2345,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>1.4477277225724201</v>
+        <v>1.4477277230000001</v>
       </c>
       <c r="C78">
-        <v>1.1527382840287499</v>
+        <v>1.152738284</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2358,10 +2356,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>1.5269782657756701</v>
+        <v>1.526978266</v>
       </c>
       <c r="C79">
-        <v>1.2089073585486101</v>
+        <v>1.2089073589999999</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2369,10 +2367,10 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.57057635858626798</v>
+        <v>-0.57057635900000003</v>
       </c>
       <c r="C80">
-        <v>-0.55161987705786297</v>
+        <v>-0.55161987700000004</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2380,10 +2378,10 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>0.92104606844427395</v>
+        <v>0.921046068</v>
       </c>
       <c r="C81">
-        <v>0.82580215570429505</v>
+        <v>0.82580215599999995</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2391,10 +2389,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>1.1970521594127099</v>
+        <v>1.1970521590000001</v>
       </c>
       <c r="C82">
-        <v>3.01524574916832</v>
+        <v>3.015245749</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2402,10 +2400,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>1.49653604066018</v>
+        <v>1.4965360409999999</v>
       </c>
       <c r="C83">
-        <v>1.2076823394029801</v>
+        <v>1.207682339</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -2413,10 +2411,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>-1.4303724913235201</v>
+        <v>-1.430372491</v>
       </c>
       <c r="C84">
-        <v>-1.52641897079661</v>
+        <v>-1.526418971</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -2424,10 +2422,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>3.0861723167786699</v>
+        <v>3.0861723169999999</v>
       </c>
       <c r="C85">
-        <v>2.0177159096359101</v>
+        <v>2.0177159100000002</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2435,10 +2433,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>-1.42601223113089</v>
+        <v>-1.4260122310000001</v>
       </c>
       <c r="C86">
-        <v>-0.96258559909007702</v>
+        <v>-0.96258559899999996</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2446,10 +2444,10 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>0.46672386694847101</v>
+        <v>0.46672386700000001</v>
       </c>
       <c r="C87">
-        <v>0.66299521889398105</v>
+        <v>0.66299521900000002</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2457,10 +2455,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>1.0124201724466699</v>
+        <v>1.0124201719999999</v>
       </c>
       <c r="C88">
-        <v>1.2400920749104201</v>
+        <v>1.240092075</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2468,10 +2466,10 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>1.7413753467283299</v>
+        <v>1.741375347</v>
       </c>
       <c r="C89">
-        <v>1.23235249391567</v>
+        <v>1.2323524939999999</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2479,10 +2477,10 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.74600561462660198</v>
+        <v>-0.74600561499999996</v>
       </c>
       <c r="C90">
-        <v>-0.74948664325375203</v>
+        <v>-0.74948664300000001</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2490,10 +2488,10 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>0.93958277151320302</v>
+        <v>0.93958277199999995</v>
       </c>
       <c r="C91">
-        <v>1.2650998817622201</v>
+        <v>1.2650998819999999</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2501,10 +2499,10 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.89237754747196296</v>
+        <v>-0.89237754700000005</v>
       </c>
       <c r="C92">
-        <v>-0.809917563382338</v>
+        <v>-0.80991756299999995</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -2512,10 +2510,10 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.50490483756470195</v>
+        <v>-0.50490483799999997</v>
       </c>
       <c r="C93">
-        <v>-0.576182276057145</v>
+        <v>-0.57618227600000005</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2523,10 +2521,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.85973947706897202</v>
+        <v>-0.85973947699999997</v>
       </c>
       <c r="C94">
-        <v>-0.98092660240871299</v>
+        <v>-0.98092660200000004</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -2534,10 +2532,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>0.83760316322067396</v>
+        <v>0.83760316300000004</v>
       </c>
       <c r="C95">
-        <v>0.63535651406176796</v>
+        <v>0.63535651400000004</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2545,10 +2543,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>1.1927724881930399</v>
+        <v>1.1927724879999999</v>
       </c>
       <c r="C96">
-        <v>1.23551854932342</v>
+        <v>1.235518549</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2556,10 +2554,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>2.3831180321638699</v>
+        <v>2.3831180320000001</v>
       </c>
       <c r="C97">
-        <v>1.17599048955911</v>
+        <v>1.17599049</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2567,10 +2565,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>1.2512396695826999</v>
+        <v>1.2512396699999999</v>
       </c>
       <c r="C98">
-        <v>0.97682135593028796</v>
+        <v>0.97682135599999997</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2578,10 +2576,10 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>0.94154155844363197</v>
+        <v>0.94154155799999995</v>
       </c>
       <c r="C99">
-        <v>0.78382327374789396</v>
+        <v>0.78382327399999996</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2589,10 +2587,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>0.698986519571275</v>
+        <v>0.69898651999999994</v>
       </c>
       <c r="C100">
-        <v>0.54719074250108202</v>
+        <v>0.54719074300000003</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2600,10 +2598,10 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.57557122125319304</v>
+        <v>-0.57557122100000002</v>
       </c>
       <c r="C101">
-        <v>-1.4299822323559099</v>
+        <v>-1.429982232</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2611,10 +2609,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>1.9176154594658401</v>
+        <v>1.9176154590000001</v>
       </c>
       <c r="C102">
-        <v>1.4183539228998201</v>
+        <v>1.418353923</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2622,10 +2620,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>1.5616965698049301</v>
+        <v>1.5616965700000001</v>
       </c>
       <c r="C103">
-        <v>1.2554422899164499</v>
+        <v>1.25544229</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2633,10 +2631,10 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>1.6636539487485</v>
+        <v>1.663653949</v>
       </c>
       <c r="C104">
-        <v>1.13547254678687</v>
+        <v>1.135472547</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2644,10 +2642,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>-0.759563955453604</v>
+        <v>-0.75956395499999996</v>
       </c>
       <c r="C105">
-        <v>-0.727327152226804</v>
+        <v>-0.72732715199999998</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2655,10 +2653,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>-0.93134591377975595</v>
+        <v>-0.931345914</v>
       </c>
       <c r="C106">
-        <v>-0.86190920614947497</v>
+        <v>-0.86190920599999998</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2666,10 +2664,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>1.7886134091244399</v>
+        <v>1.7886134090000001</v>
       </c>
       <c r="C107">
-        <v>1.3921583636630801</v>
+        <v>1.3921583639999999</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2677,10 +2675,10 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>1.40788498131984</v>
+        <v>1.407884981</v>
       </c>
       <c r="C108">
-        <v>2.1165470973851201</v>
+        <v>2.1165470970000002</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2688,10 +2686,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>-1.948518480183</v>
+        <v>-1.9485184799999999</v>
       </c>
       <c r="C109">
-        <v>-1.5026731827142099</v>
+        <v>-1.502673183</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2699,10 +2697,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>1.57431811209735</v>
+        <v>1.574318112</v>
       </c>
       <c r="C110">
-        <v>1.78196087446409</v>
+        <v>1.7819608739999999</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2710,10 +2708,10 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>2.7500085510501102</v>
+        <v>2.7500085510000001</v>
       </c>
       <c r="C111">
-        <v>1.81153142996814</v>
+        <v>1.8115314300000001</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2721,10 +2719,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>2.2434478516675398</v>
+        <v>2.2434478520000001</v>
       </c>
       <c r="C112">
-        <v>1.3443443154061501</v>
+        <v>1.3443443150000001</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2732,10 +2730,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>1.6333858975357001</v>
+        <v>1.633385898</v>
       </c>
       <c r="C113">
-        <v>1.30363635019653</v>
+        <v>1.3036363500000001</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2743,10 +2741,10 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>-0.83025537894605395</v>
+        <v>-0.83025537900000002</v>
       </c>
       <c r="C114">
-        <v>-0.67844439338253704</v>
+        <v>-0.67844439300000003</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -2754,10 +2752,10 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>1.73659391578203</v>
+        <v>1.7365939159999999</v>
       </c>
       <c r="C115">
-        <v>1.2593445045282201</v>
+        <v>1.2593445050000001</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2765,10 +2763,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>-0.861575375821793</v>
+        <v>-0.861575376</v>
       </c>
       <c r="C116">
-        <v>-1.10417781966842</v>
+        <v>-1.1041778200000001</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2776,10 +2774,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>-1.0387714471085301</v>
+        <v>-1.038771447</v>
       </c>
       <c r="C117">
-        <v>-0.75187069390987504</v>
+        <v>-0.75187069399999995</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2787,10 +2785,10 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>1.49813891167215</v>
+        <v>1.4981389119999999</v>
       </c>
       <c r="C118">
-        <v>1.2419329650744</v>
+        <v>1.2419329649999999</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2798,10 +2796,10 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>-1.19669279303837</v>
+        <v>-1.196692793</v>
       </c>
       <c r="C119">
-        <v>-1.2651670703356299</v>
+        <v>-1.2651670699999999</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2809,10 +2807,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>-1.50034195190541</v>
+        <v>-1.5003419520000001</v>
       </c>
       <c r="C120">
-        <v>-1.2606990725524301</v>
+        <v>-1.2606990730000001</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2820,10 +2818,10 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>1.3428276256759599</v>
+        <v>1.3428276260000001</v>
       </c>
       <c r="C121">
-        <v>1.55127344084165</v>
+        <v>1.551273441</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -2831,10 +2829,10 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>1.5548759918306301</v>
+        <v>1.5548759919999999</v>
       </c>
       <c r="C122">
-        <v>1.1869606811773099</v>
+        <v>1.186960681</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2842,10 +2840,10 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>-0.89151175351053102</v>
+        <v>-0.89151175400000005</v>
       </c>
       <c r="C123">
-        <v>-1.0044880794356199</v>
+        <v>-1.0044880789999999</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -2853,10 +2851,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>-1.29578882431859</v>
+        <v>-1.295788824</v>
       </c>
       <c r="C124">
-        <v>-1.83468762566088</v>
+        <v>-1.834687626</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -2864,10 +2862,10 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>1.00969589694589</v>
+        <v>1.0096958970000001</v>
       </c>
       <c r="C125">
-        <v>1.1352055219260599</v>
+        <v>1.1352055219999999</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -2875,10 +2873,10 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>-1.36315362787315</v>
+        <v>-1.3631536280000001</v>
       </c>
       <c r="C126">
-        <v>-0.90304455429438002</v>
+        <v>-0.90304455400000005</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -2886,10 +2884,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>1.8989839432298199</v>
+        <v>1.898983943</v>
       </c>
       <c r="C127">
-        <v>2.6259652451097</v>
+        <v>2.6259652450000002</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -2897,10 +2895,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>-1.14203084730808</v>
+        <v>-1.142030847</v>
       </c>
       <c r="C128">
-        <v>-1.2344876852817099</v>
+        <v>-1.2344876849999999</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -2908,10 +2906,10 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>1.8158730714670599</v>
+        <v>1.8158730709999999</v>
       </c>
       <c r="C129">
-        <v>1.96077127282685</v>
+        <v>1.960771273</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -2919,10 +2917,10 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>1.13518731812291</v>
+        <v>1.1351873180000001</v>
       </c>
       <c r="C130">
-        <v>2.3029589771945398</v>
+        <v>2.3029589769999999</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -2930,10 +2928,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>1.29845437686898</v>
+        <v>1.2984543770000001</v>
       </c>
       <c r="C131">
-        <v>1.15310664615042</v>
+        <v>1.1531066459999999</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -2941,10 +2939,10 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>2.7374247223397199</v>
+        <v>2.7374247220000001</v>
       </c>
       <c r="C132">
-        <v>1.79112804124325</v>
+        <v>1.7911280409999999</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -2952,10 +2950,10 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>-0.73151920159037498</v>
+        <v>-0.73151920199999998</v>
       </c>
       <c r="C133">
-        <v>-0.88729552724999905</v>
+        <v>-0.88729552700000003</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -2963,10 +2961,10 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>1.68248973948368</v>
+        <v>1.682489739</v>
       </c>
       <c r="C134">
-        <v>1.4010258483468101</v>
+        <v>1.401025848</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -2974,10 +2972,10 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>1.5500212544324401</v>
+        <v>1.550021254</v>
       </c>
       <c r="C135">
-        <v>0.92899528169244305</v>
+        <v>0.92899528200000003</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -2985,10 +2983,10 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>-2.3555253064922899</v>
+        <v>-2.3555253060000001</v>
       </c>
       <c r="C136">
-        <v>-1.61296844296833</v>
+        <v>-1.612968443</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -2996,10 +2994,10 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>-0.99056052787340199</v>
+        <v>-0.99056052800000005</v>
       </c>
       <c r="C137">
-        <v>-0.90036062217648904</v>
+        <v>-0.900360622</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -3007,10 +3005,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>-1.6170659790768001</v>
+        <v>-1.6170659789999999</v>
       </c>
       <c r="C138">
-        <v>-1.55881061372771</v>
+        <v>-1.558810614</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -3018,10 +3016,10 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>0.71977482553870797</v>
+        <v>0.71977482599999998</v>
       </c>
       <c r="C139">
-        <v>0.92321568553563205</v>
+        <v>0.92321568600000004</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -3029,10 +3027,10 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>-1.39773576824225</v>
+        <v>-1.397735768</v>
       </c>
       <c r="C140">
-        <v>-1.0762516331152701</v>
+        <v>-1.076251633</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -3040,10 +3038,10 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>1.2844165647870001</v>
+        <v>1.2844165649999999</v>
       </c>
       <c r="C141">
-        <v>1.06292920578493</v>
+        <v>1.062929206</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -3051,10 +3049,10 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>1.04186177849849</v>
+        <v>1.0418617779999999</v>
       </c>
       <c r="C142">
-        <v>1.70540935539781</v>
+        <v>1.705409355</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -3062,10 +3060,10 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>1.6233888130443299</v>
+        <v>1.623388813</v>
       </c>
       <c r="C143">
-        <v>1.3740817701629999</v>
+        <v>1.3740817700000001</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -3073,10 +3071,10 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>0.88018490055063603</v>
+        <v>0.88018490100000002</v>
       </c>
       <c r="C144">
-        <v>1.4106817604970301</v>
+        <v>1.4106817599999999</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3084,10 +3082,10 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>-0.63659552166706002</v>
+        <v>-0.63659552200000002</v>
       </c>
       <c r="C145">
-        <v>-1.03676431880131</v>
+        <v>-1.036764319</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -3095,10 +3093,10 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>-1.39895315527536</v>
+        <v>-1.3989531550000001</v>
       </c>
       <c r="C146">
-        <v>-1.3459588822226101</v>
+        <v>-1.3459588819999999</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -3106,10 +3104,10 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>-1.1551440940347999</v>
+        <v>-1.155144094</v>
       </c>
       <c r="C147">
-        <v>-0.95935556948183098</v>
+        <v>-0.95935556899999996</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -3117,10 +3115,10 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>-0.84267935875925803</v>
+        <v>-0.84267935900000002</v>
       </c>
       <c r="C148">
-        <v>-1.50330968566099</v>
+        <v>-1.5033096859999999</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -3128,10 +3126,10 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>-1.50153681151235</v>
+        <v>-1.5015368120000001</v>
       </c>
       <c r="C149">
-        <v>-1.5412443945315499</v>
+        <v>-1.5412443950000001</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -3139,10 +3137,10 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>1.4910655059653899</v>
+        <v>1.491065506</v>
       </c>
       <c r="C150">
-        <v>1.6157704394575001</v>
+        <v>1.6157704390000001</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -3150,10 +3148,10 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>2.28688038887449</v>
+        <v>2.2868803889999998</v>
       </c>
       <c r="C151">
-        <v>1.38984840721819</v>
+        <v>1.3898484069999999</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -3161,10 +3159,10 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>1.5155731768664999</v>
+        <v>1.515573177</v>
       </c>
       <c r="C152">
-        <v>0.98441371316805404</v>
+        <v>0.98441371300000002</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -3172,10 +3170,10 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>1.33278371572806</v>
+        <v>1.332783716</v>
       </c>
       <c r="C153">
-        <v>1.40306670414309</v>
+        <v>1.403066704</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -3183,10 +3181,10 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>-0.79605834001765596</v>
+        <v>-0.79605833999999998</v>
       </c>
       <c r="C154">
-        <v>-0.88895836580787602</v>
+        <v>-0.888958366</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -3194,10 +3192,10 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>1.9849662285380101</v>
+        <v>1.9849662290000001</v>
       </c>
       <c r="C155">
-        <v>1.5649507223092201</v>
+        <v>1.5649507220000001</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -3205,10 +3203,10 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>1.1557928374290001</v>
+        <v>1.1557928369999999</v>
       </c>
       <c r="C156">
-        <v>1.2209686294178399</v>
+        <v>1.2209686289999999</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -3216,10 +3214,10 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>1.8950804765831699</v>
+        <v>1.895080477</v>
       </c>
       <c r="C157">
-        <v>1.4645817350800401</v>
+        <v>1.4645817350000001</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -3227,10 +3225,10 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>2.6473459286692198</v>
+        <v>2.6473459290000001</v>
       </c>
       <c r="C158">
-        <v>4.1652664009817002</v>
+        <v>4.1652664010000002</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -3238,10 +3236,10 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>3.7043522619357199</v>
+        <v>3.704352262</v>
       </c>
       <c r="C159">
-        <v>2.0138711023629101</v>
+        <v>2.013871102</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -3249,10 +3247,10 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>1.1802564149358199</v>
+        <v>1.1802564149999999</v>
       </c>
       <c r="C160">
-        <v>2.7490912689694902</v>
+        <v>2.749091269</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -3260,10 +3258,10 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>4.7386469273035798</v>
+        <v>4.7386469269999996</v>
       </c>
       <c r="C161">
-        <v>1.8772609777090401</v>
+        <v>1.877260978</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -3271,10 +3269,10 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>1.94714190055684</v>
+        <v>1.947141901</v>
       </c>
       <c r="C162">
-        <v>2.4456115995876102</v>
+        <v>2.4456115999999999</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -3282,10 +3280,10 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>-0.66674756206080499</v>
+        <v>-0.66674756199999996</v>
       </c>
       <c r="C163">
-        <v>-0.57767142620937895</v>
+        <v>-0.57767142599999999</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -3293,10 +3291,10 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>1.7920824787790599</v>
+        <v>1.7920824790000001</v>
       </c>
       <c r="C164">
-        <v>2.17517274262863</v>
+        <v>2.1751727430000001</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -3304,10 +3302,10 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>-0.72764440318109203</v>
+        <v>-0.727644403</v>
       </c>
       <c r="C165">
-        <v>-0.69131167931951398</v>
+        <v>-0.69131167900000001</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -3315,10 +3313,10 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>2.4050513512382699</v>
+        <v>2.405051351</v>
       </c>
       <c r="C166">
-        <v>1.63122436809232</v>
+        <v>1.631224368</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -3326,10 +3324,10 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>0.90995748680171995</v>
+        <v>0.90995748700000001</v>
       </c>
       <c r="C167">
-        <v>0.87547464434409805</v>
+        <v>0.87547464399999997</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -3337,10 +3335,10 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>1.4608146728878399</v>
+        <v>1.460814673</v>
       </c>
       <c r="C168">
-        <v>1.5496229651323199</v>
+        <v>1.549622965</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -3348,10 +3346,10 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>1.2557914648298401</v>
+        <v>1.2557914649999999</v>
       </c>
       <c r="C169">
-        <v>1.3180127588662101</v>
+        <v>1.3180127589999999</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -3359,10 +3357,10 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>1.5884500612264101</v>
+        <v>1.5884500610000001</v>
       </c>
       <c r="C170">
-        <v>1.1656211507688701</v>
+        <v>1.1656211510000001</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -3370,10 +3368,10 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>2.3985696323802399</v>
+        <v>2.3985696320000001</v>
       </c>
       <c r="C171">
-        <v>2.2400539447843499</v>
+        <v>2.2400539450000001</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -3381,10 +3379,10 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>-0.68115432901095196</v>
+        <v>-0.68115432899999995</v>
       </c>
       <c r="C172">
-        <v>-0.729904082909826</v>
+        <v>-0.72990408299999998</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -3392,10 +3390,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>2.0253562416278101</v>
+        <v>2.025356242</v>
       </c>
       <c r="C173">
-        <v>1.30587594892007</v>
+        <v>1.305875949</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -3403,10 +3401,10 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>1.7452002347316999</v>
+        <v>1.745200235</v>
       </c>
       <c r="C174">
-        <v>1.51874690808307</v>
+        <v>1.518746908</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -3414,10 +3412,10 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>-1.1383268107512099</v>
+        <v>-1.138326811</v>
       </c>
       <c r="C175">
-        <v>-0.99325760826310205</v>
+        <v>-0.99325760799999996</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -3425,10 +3423,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>-0.53925435938602295</v>
+        <v>-0.53925435899999996</v>
       </c>
       <c r="C176">
-        <v>-0.613078981439375</v>
+        <v>-0.61307898100000002</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -3436,10 +3434,10 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>-0.83172975372412505</v>
+        <v>-0.83172975400000004</v>
       </c>
       <c r="C177">
-        <v>-0.72800511867739404</v>
+        <v>-0.72800511899999998</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -3447,10 +3445,10 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>2.5847104775519498</v>
+        <v>2.5847104779999999</v>
       </c>
       <c r="C178">
-        <v>1.5590954690921399</v>
+        <v>1.5590954690000001</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -3458,10 +3456,10 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>-1.79791087332587</v>
+        <v>-1.797910873</v>
       </c>
       <c r="C179">
-        <v>-2.23717174653595</v>
+        <v>-2.2371717470000001</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -3469,10 +3467,10 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>-0.67744345355621105</v>
+        <v>-0.67744345399999994</v>
       </c>
       <c r="C180">
-        <v>-0.88570109935351604</v>
+        <v>-0.88570109900000005</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -3480,10 +3478,10 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>-1.19191924558119</v>
+        <v>-1.1919192460000001</v>
       </c>
       <c r="C181">
-        <v>-0.85556515207214601</v>
+        <v>-0.85556515200000005</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -3491,10 +3489,10 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>-0.95249653665019096</v>
+        <v>-0.95249653700000003</v>
       </c>
       <c r="C182">
-        <v>-1.5488480394984401</v>
+        <v>-1.5488480389999999</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -3502,10 +3500,10 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>-0.97511608701498698</v>
+        <v>-0.97511608699999996</v>
       </c>
       <c r="C183">
-        <v>-1.4976048494288901</v>
+        <v>-1.497604849</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -3513,10 +3511,10 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>1.33057681515939</v>
+        <v>1.3305768149999999</v>
       </c>
       <c r="C184">
-        <v>1.4872685712144</v>
+        <v>1.487268571</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -3524,10 +3522,10 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>-0.82215890549232595</v>
+        <v>-0.822158905</v>
       </c>
       <c r="C185">
-        <v>-0.84488314609708903</v>
+        <v>-0.84488314600000003</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -3535,10 +3533,10 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>0.56696529881208302</v>
+        <v>0.56696529900000003</v>
       </c>
       <c r="C186">
-        <v>1.6606652837174101</v>
+        <v>1.660665284</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -3546,10 +3544,10 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>2.3782127853829098</v>
+        <v>2.3782127850000001</v>
       </c>
       <c r="C187">
-        <v>1.8147556121344399</v>
+        <v>1.8147556119999999</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -3557,10 +3555,10 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>1.5319440330655301</v>
+        <v>1.531944033</v>
       </c>
       <c r="C188">
-        <v>1.99102683031751</v>
+        <v>1.99102683</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -3568,10 +3566,10 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>1.5319440330655301</v>
+        <v>1.531944033</v>
       </c>
       <c r="C189">
-        <v>1.99102683031751</v>
+        <v>1.99102683</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -3579,10 +3577,10 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>1.5319440330655301</v>
+        <v>1.531944033</v>
       </c>
       <c r="C190">
-        <v>1.99102683031751</v>
+        <v>1.99102683</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -3590,10 +3588,10 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>1.5319440330655301</v>
+        <v>1.531944033</v>
       </c>
       <c r="C191">
-        <v>1.99102683031751</v>
+        <v>1.99102683</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -3601,10 +3599,10 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>0.933905870453272</v>
+        <v>0.93390587000000003</v>
       </c>
       <c r="C192">
-        <v>0.72678360251428398</v>
+        <v>0.726783603</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -3612,10 +3610,10 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>-1.2819191666245</v>
+        <v>-1.2819191670000001</v>
       </c>
       <c r="C193">
-        <v>-1.42918255437871</v>
+        <v>-1.429182554</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -3623,10 +3621,10 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>1.2915633895341101</v>
+        <v>1.2915633900000001</v>
       </c>
       <c r="C194">
-        <v>-1.21962133964943</v>
+        <v>-1.21962134</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -3634,10 +3632,10 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>-1.52514598798832</v>
+        <v>-1.525145988</v>
       </c>
       <c r="C195">
-        <v>-1.45364027613497</v>
+        <v>-1.453640276</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -3645,10 +3643,10 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>1.71156233131549</v>
+        <v>1.7115623310000001</v>
       </c>
       <c r="C196">
-        <v>2.3797527557136098</v>
+        <v>2.3797527559999998</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -3656,10 +3654,10 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>-0.71409959839533999</v>
+        <v>-0.714099598</v>
       </c>
       <c r="C197">
-        <v>-0.72564144892612004</v>
+        <v>-0.72564144900000005</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -3667,10 +3665,10 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>-1.87380141801197</v>
+        <v>-1.873801418</v>
       </c>
       <c r="C198">
-        <v>-2.6697935010565201</v>
+        <v>-2.669793501</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -3678,10 +3676,10 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>-0.95404139386245401</v>
+        <v>-0.95404139399999999</v>
       </c>
       <c r="C199">
-        <v>-1.6271614655338</v>
+        <v>-1.627161466</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -3689,10 +3687,10 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>-0.75072405568832301</v>
+        <v>-0.75072405600000003</v>
       </c>
       <c r="C200">
-        <v>1.39509349846925</v>
+        <v>1.395093498</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -3700,10 +3698,10 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>-1.6584908357975501</v>
+        <v>-1.6584908359999999</v>
       </c>
       <c r="C201">
-        <v>-1.7988897460605699</v>
+        <v>-1.798889746</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -3711,10 +3709,10 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>-0.79155252100658602</v>
+        <v>-0.79155252099999995</v>
       </c>
       <c r="C202">
-        <v>-0.96864044550284001</v>
+        <v>-0.96864044599999999</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -3722,10 +3720,10 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>1.05614443043363</v>
+        <v>1.05614443</v>
       </c>
       <c r="C203">
-        <v>0.68740667560722002</v>
+        <v>0.68740667600000005</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -3733,10 +3731,10 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>-1.1019672342010201</v>
+        <v>-1.101967234</v>
       </c>
       <c r="C204">
-        <v>-1.22258496551478</v>
+        <v>-1.2225849660000001</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -3744,10 +3742,10 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>-1.1786440252585699</v>
+        <v>-1.1786440250000001</v>
       </c>
       <c r="C205">
-        <v>-1.01886459277354</v>
+        <v>-1.018864593</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -3755,10 +3753,10 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>1.2911105217577601</v>
+        <v>1.2911105220000001</v>
       </c>
       <c r="C206">
-        <v>1.2904170373667001</v>
+        <v>1.2904170370000001</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -3766,10 +3764,10 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>1.88913871261763</v>
+        <v>1.8891387129999999</v>
       </c>
       <c r="C207">
-        <v>1.01132342023267</v>
+        <v>1.0113234200000001</v>
       </c>
     </row>
   </sheetData>
